--- a/outputs-r202/test-g__RF16.xlsx
+++ b/outputs-r202/test-g__RF16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Row</t>
   </si>
@@ -319,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -329,14 +329,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,4928 +430,4928 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="C2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="D2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="E2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="F2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="G2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="H2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="I2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="J2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="K2">
-        <v>0.0001897870117549876</v>
+        <v>1.1534708084620283e-07</v>
       </c>
       <c r="L2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="M2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="N2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="O2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="P2">
-        <v>0.00012573059829601798</v>
+        <v>1.6071086132861934e-07</v>
       </c>
       <c r="Q2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="R2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="S2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="T2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="U2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="V2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="W2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="X2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="Y2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="Z2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AA2">
-        <v>0.99715598997206922</v>
+        <v>0.99785706658851825</v>
       </c>
       <c r="AB2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AC2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AD2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AE2">
-        <v>4.9274327223952029e-07</v>
+        <v>1.0474473224485055e-06</v>
       </c>
       <c r="AF2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AG2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AH2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AI2">
-        <v>2.4488343476419515e-08</v>
+        <v>0.001667674390880635</v>
       </c>
       <c r="AJ2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AK2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AL2">
-        <v>1.6688055038189945e-05</v>
+        <v>6.8532369712302992e-06</v>
       </c>
       <c r="AM2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AN2">
-        <v>0.0001120892092724545</v>
+        <v>0.00044194299347440378</v>
       </c>
       <c r="AO2">
-        <v>0.002283126119868428</v>
+        <v>3.8926167963773573e-08</v>
       </c>
       <c r="AP2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AQ2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AR2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AS2">
-        <v>1.169548246357243e-07</v>
+        <v>2.3288070702618498e-05</v>
       </c>
       <c r="AT2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AU2">
-        <v>0.0001113746007742638</v>
+        <v>1.3230820148305373e-06</v>
       </c>
       <c r="AV2">
-        <v>2.9241490551365627e-10</v>
+        <v>2.0407695455386309e-07</v>
       </c>
       <c r="AW2">
-        <v>5.9791630252318163e-07</v>
+        <v>2.5468006969110184e-07</v>
       </c>
       <c r="AX2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AY2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="AZ2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BA2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BB2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BC2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BD2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BE2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BF2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BG2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BH2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BI2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BJ2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BK2">
-        <v>7.4582810813314238e-13</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BL2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BM2">
-        <v>2.2203590861760882e-14</v>
+        <v>1.0290269801219848e-08</v>
       </c>
       <c r="BN2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BO2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BP2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BQ2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BR2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BS2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BT2">
-        <v>3.982035735214882e-06</v>
+        <v>2.0157423540321631e-08</v>
       </c>
       <c r="BU2">
-        <v>2.2203590861760882e-14</v>
+        <v>2.2203803851018872e-14</v>
       </c>
       <c r="BV2">
         <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="C3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="D3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="E3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="F3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="G3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="H3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="I3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="J3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="K3">
-        <v>0.012413240225765565</v>
+        <v>0.010937485505513459</v>
       </c>
       <c r="L3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="M3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="N3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="O3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="P3">
-        <v>4.8595331069358997e-08</v>
+        <v>5.9515227785997178e-09</v>
       </c>
       <c r="Q3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="R3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="S3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="T3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="U3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="V3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="W3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="X3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="Y3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="Z3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AA3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AB3">
-        <v>0.98434771039262658</v>
+        <v>0.98480581544661239</v>
       </c>
       <c r="AC3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AD3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AE3">
-        <v>0.0011792813332122825</v>
+        <v>7.1321463340979797e-07</v>
       </c>
       <c r="AF3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AG3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AH3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AI3">
-        <v>4.8890355221635028e-06</v>
+        <v>1.502783927305657e-06</v>
       </c>
       <c r="AJ3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AK3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AL3">
-        <v>8.8160159526139684e-10</v>
+        <v>4.0034991898116761e-10</v>
       </c>
       <c r="AM3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AN3">
-        <v>2.0785294809679517e-08</v>
+        <v>1.3597693263486866e-10</v>
       </c>
       <c r="AO3">
-        <v>0.0020010938195058029</v>
+        <v>7.225990847941103e-05</v>
       </c>
       <c r="AP3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AQ3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AR3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AS3">
-        <v>1.1087416093961765e-07</v>
+        <v>8.149217394686898e-08</v>
       </c>
       <c r="AT3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AU3">
-        <v>4.2073831577513232e-05</v>
+        <v>1.0642034029017637e-05</v>
       </c>
       <c r="AV3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AW3">
-        <v>3.8200660115307931e-12</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AX3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AY3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="AZ3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BA3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BB3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BC3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BD3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BE3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BF3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BG3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BH3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BI3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BJ3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BK3">
-        <v>1.0851410250703219e-05</v>
+        <v>0.0041713368304185424</v>
       </c>
       <c r="BL3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BM3">
-        <v>1.2310087910906623e-09</v>
+        <v>8.9091964717746434e-08</v>
       </c>
       <c r="BN3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BO3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BP3">
-        <v>2.6775473156534849e-09</v>
+        <v>6.7196703923232929e-08</v>
       </c>
       <c r="BQ3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BR3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BS3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BT3">
-        <v>6.7490150925081192e-07</v>
+        <v>6.4064212665082462e-12</v>
       </c>
       <c r="BU3">
-        <v>2.2202493212783303e-14</v>
+        <v>2.2202513742236154e-14</v>
       </c>
       <c r="BV3">
         <v>27</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="C4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="D4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="E4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="F4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="G4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="H4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="I4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="J4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="K4">
-        <v>3.1813448924048398e-08</v>
+        <v>5.3400925509707412e-08</v>
       </c>
       <c r="L4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="M4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="N4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="O4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="P4">
-        <v>3.0642490858795398e-05</v>
+        <v>4.1056258485846138e-07</v>
       </c>
       <c r="Q4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="R4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="S4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="T4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="U4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="V4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="W4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="X4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="Y4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="Z4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AA4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AB4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AC4">
-        <v>0.97608697777952247</v>
+        <v>0.86977929688479239</v>
       </c>
       <c r="AD4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AE4">
-        <v>3.7197977437445782e-10</v>
+        <v>5.6290551696387483e-13</v>
       </c>
       <c r="AF4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AG4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AH4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AI4">
-        <v>0.023851656845129032</v>
+        <v>0.13021541682296223</v>
       </c>
       <c r="AJ4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AK4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AL4">
-        <v>5.7149488379482578e-07</v>
+        <v>1.3887567405112023e-07</v>
       </c>
       <c r="AM4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AN4">
-        <v>6.1148473815454495e-08</v>
+        <v>6.4093114588162958e-10</v>
       </c>
       <c r="AO4">
-        <v>8.3321208674903301e-12</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AP4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AQ4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AR4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AS4">
-        <v>2.4778980176054341e-06</v>
+        <v>2.3877306863568629e-07</v>
       </c>
       <c r="AT4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AU4">
-        <v>2.4178293682133911e-05</v>
+        <v>2.6841153800044136e-06</v>
       </c>
       <c r="AV4">
-        <v>8.9170412588667682e-10</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AW4">
-        <v>1.2487869981365428e-06</v>
+        <v>3.47471875381122e-09</v>
       </c>
       <c r="AX4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AY4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="AZ4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BA4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BB4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BC4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BD4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BE4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BF4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BG4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BH4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BI4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BJ4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BK4">
-        <v>1.1401675583387928e-12</v>
+        <v>7.0936032100841506e-12</v>
       </c>
       <c r="BL4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BM4">
-        <v>2.1350053690435055e-06</v>
+        <v>1.7564185340851225e-06</v>
       </c>
       <c r="BN4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BO4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BP4">
-        <v>3.885619502248577e-11</v>
+        <v>1.1229449373987932e-11</v>
       </c>
       <c r="BQ4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BR4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BS4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BT4">
-        <v>1.7130360809619347e-08</v>
+        <v>1.0254385272276093e-11</v>
       </c>
       <c r="BU4">
-        <v>2.2202238901650657e-14</v>
+        <v>2.2203047216133711e-14</v>
       </c>
       <c r="BV4">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="I5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="K5">
-        <v>1.2418063239979512e-11</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="L5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="M5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="N5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="O5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="P5">
-        <v>5.7118399792197411e-09</v>
+        <v>3.7833877523312881e-07</v>
       </c>
       <c r="Q5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="R5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="S5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="T5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="U5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="V5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="W5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="X5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="Y5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="Z5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AA5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AB5">
-        <v>1.490212382515887e-12</v>
+        <v>3.1918908031226731e-09</v>
       </c>
       <c r="AC5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AD5">
-        <v>0.99973918327457445</v>
+        <v>0.50303856473024322</v>
       </c>
       <c r="AE5">
-        <v>7.0022200160098201e-05</v>
+        <v>1.0434120405694493e-06</v>
       </c>
       <c r="AF5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AG5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AH5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AI5">
-        <v>5.16401375899595e-06</v>
+        <v>0.0054854276282023115</v>
       </c>
       <c r="AJ5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AK5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AL5">
-        <v>9.6356672418614308e-07</v>
+        <v>1.7626115351193928e-06</v>
       </c>
       <c r="AM5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AN5">
-        <v>1.5635344704012762e-05</v>
+        <v>6.2404617322854445e-06</v>
       </c>
       <c r="AO5">
-        <v>1.2774596123967499e-06</v>
+        <v>3.3835438307263707e-07</v>
       </c>
       <c r="AP5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AQ5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AR5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AS5">
-        <v>7.806564583744504e-11</v>
+        <v>1.5596184718749558e-08</v>
       </c>
       <c r="AT5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AU5">
-        <v>6.1900927310728246e-05</v>
+        <v>5.2719773763113066e-07</v>
       </c>
       <c r="AV5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AW5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AX5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AY5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="AZ5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BA5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BB5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BC5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BD5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BE5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BF5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BG5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BH5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BI5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BJ5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BK5">
-        <v>2.2246638380922414e-06</v>
+        <v>0.49145453434327591</v>
       </c>
       <c r="BL5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BM5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BN5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BO5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BP5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BQ5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BR5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BS5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BT5">
-        <v>0.00010362274419315723</v>
+        <v>1.1164132666735858e-05</v>
       </c>
       <c r="BU5">
-        <v>2.2204380120510787e-14</v>
+        <v>2.220955464657399e-14</v>
       </c>
       <c r="BV5">
         <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928318e-14</v>
       </c>
       <c r="C6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928318e-14</v>
       </c>
       <c r="D6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928318e-14</v>
       </c>
       <c r="E6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928277e-14</v>
       </c>
       <c r="F6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928277e-14</v>
       </c>
       <c r="G6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928311e-14</v>
       </c>
       <c r="H6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928311e-14</v>
       </c>
       <c r="I6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928311e-14</v>
       </c>
       <c r="J6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928318e-14</v>
       </c>
       <c r="K6">
-        <v>0.00032928260950193061</v>
+        <v>0.030991293271133619</v>
       </c>
       <c r="L6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="M6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928277e-14</v>
       </c>
       <c r="N6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928277e-14</v>
       </c>
       <c r="O6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="P6">
-        <v>2.1848594259275081e-07</v>
+        <v>3.1047272087488763e-08</v>
       </c>
       <c r="Q6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928277e-14</v>
       </c>
       <c r="R6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928273e-14</v>
       </c>
       <c r="S6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="T6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="U6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="V6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="W6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="X6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="Y6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="Z6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="AA6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="AB6">
-        <v>2.5882865696361606e-07</v>
+        <v>2.194798466948052e-05</v>
       </c>
       <c r="AC6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="AD6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="AE6">
-        <v>0.97854200700895277</v>
+        <v>0.96744378194489489</v>
       </c>
       <c r="AF6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="AG6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928378e-14</v>
       </c>
       <c r="AH6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928308e-14</v>
       </c>
       <c r="AI6">
-        <v>2.2021334375014974e-06</v>
+        <v>1.1087189353835724e-06</v>
       </c>
       <c r="AJ6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928475e-14</v>
       </c>
       <c r="AK6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928475e-14</v>
       </c>
       <c r="AL6">
-        <v>3.8312616857660063e-09</v>
+        <v>5.2715434649030143e-10</v>
       </c>
       <c r="AM6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928475e-14</v>
       </c>
       <c r="AN6">
-        <v>8.1025664895503371e-12</v>
+        <v>7.8462685581529657e-11</v>
       </c>
       <c r="AO6">
-        <v>0.021103484773191579</v>
+        <v>0.0009395549563110643</v>
       </c>
       <c r="AP6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928475e-14</v>
       </c>
       <c r="AQ6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928475e-14</v>
       </c>
       <c r="AR6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928475e-14</v>
       </c>
       <c r="AS6">
-        <v>7.6967249529871419e-10</v>
+        <v>2.8404796899738169e-08</v>
       </c>
       <c r="AT6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="AU6">
-        <v>1.0336798870523988e-05</v>
+        <v>6.02334095936395e-05</v>
       </c>
       <c r="AV6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="AW6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="AX6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="AY6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="AZ6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BA6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BB6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BC6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BD6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BE6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BF6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BG6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BH6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BI6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BJ6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BK6">
-        <v>1.3440786621284619e-06</v>
+        <v>0.00054178467659045187</v>
       </c>
       <c r="BL6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BM6">
-        <v>9.8949620576415277e-14</v>
+        <v>2.2856891758972568e-07</v>
       </c>
       <c r="BN6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387928409e-14</v>
       </c>
       <c r="BO6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387927677e-14</v>
       </c>
       <c r="BP6">
-        <v>1.0781152941425907e-05</v>
+        <v>5.661284334968324e-09</v>
       </c>
       <c r="BQ6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387927668e-14</v>
       </c>
       <c r="BR6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387927668e-14</v>
       </c>
       <c r="BS6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387927668e-14</v>
       </c>
       <c r="BT6">
-        <v>7.951941910390267e-08</v>
+        <v>7.4838087210303692e-10</v>
       </c>
       <c r="BU6">
-        <v>2.2202233419307918e-14</v>
+        <v>2.7611076387927668e-14</v>
       </c>
       <c r="BV6">
         <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="C7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="D7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="E7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="F7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="G7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="H7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="I7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="J7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="K7">
-        <v>0.00010457151552109559</v>
+        <v>0.0018393856220993295</v>
       </c>
       <c r="L7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="M7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="N7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="O7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="P7">
-        <v>1.3212985676262174e-08</v>
+        <v>5.1734856327252066e-10</v>
       </c>
       <c r="Q7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="R7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="S7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="T7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="U7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="V7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="W7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="X7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="Y7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="Z7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AA7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AB7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AC7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AD7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AE7">
-        <v>1.2181310350933634e-10</v>
+        <v>2.9159880509735124e-13</v>
       </c>
       <c r="AF7">
-        <v>0.99869240847459972</v>
+        <v>0.97865824184010886</v>
       </c>
       <c r="AG7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AH7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AI7">
-        <v>2.9680517000476453e-06</v>
+        <v>1.535888464269833e-06</v>
       </c>
       <c r="AJ7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AK7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AL7">
-        <v>1.9839372254795882e-07</v>
+        <v>6.4255852645219366e-09</v>
       </c>
       <c r="AM7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AN7">
-        <v>0.00099435720717910609</v>
+        <v>0.019485389571855308</v>
       </c>
       <c r="AO7">
-        <v>0.00018200082516549123</v>
+        <v>1.1104761571114668e-07</v>
       </c>
       <c r="AP7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AQ7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AR7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AS7">
-        <v>2.0444474145043854e-08</v>
+        <v>2.0220550185684733e-07</v>
       </c>
       <c r="AT7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AU7">
-        <v>2.3392730626331045e-05</v>
+        <v>3.4855489198680631e-06</v>
       </c>
       <c r="AV7">
-        <v>2.2204058812173305e-14</v>
+        <v>1.7233775108922975e-07</v>
       </c>
       <c r="AW7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AX7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AY7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="AZ7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BA7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BB7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BC7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BD7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BE7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BF7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BG7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BH7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BI7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BJ7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BK7">
-        <v>5.4692352741605285e-09</v>
+        <v>1.1185086421132022e-05</v>
       </c>
       <c r="BL7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BM7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.8390575704790577e-07</v>
       </c>
       <c r="BN7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BO7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BP7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BQ7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BR7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BS7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BT7">
-        <v>6.3551645082299979e-08</v>
+        <v>9.9255030994025266e-13</v>
       </c>
       <c r="BU7">
-        <v>2.2204058812173305e-14</v>
+        <v>2.2202631487624942e-14</v>
       </c>
       <c r="BV7">
         <v>31</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="C8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="D8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="E8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="F8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="G8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="H8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="I8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="J8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="K8">
-        <v>2.2203691197539682e-14</v>
+        <v>1.7926720044466198e-10</v>
       </c>
       <c r="L8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="M8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="N8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="O8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="P8">
-        <v>0.00081470939935403936</v>
+        <v>3.6089309443404724e-06</v>
       </c>
       <c r="Q8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="R8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="S8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="T8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="U8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="V8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="W8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="X8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="Y8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="Z8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AA8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AB8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AC8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AD8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AE8">
-        <v>2.2203691197539682e-14</v>
+        <v>7.568916515249518e-08</v>
       </c>
       <c r="AF8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AG8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AH8">
-        <v>0.99748661465542332</v>
+        <v>0.98559708571824201</v>
       </c>
       <c r="AI8">
-        <v>0.00032768971216322334</v>
+        <v>1.8789333468974379e-06</v>
       </c>
       <c r="AJ8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AK8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AL8">
-        <v>0.00048237500905921681</v>
+        <v>0.00069557923863958215</v>
       </c>
       <c r="AM8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AN8">
-        <v>4.3525759150062132e-08</v>
+        <v>0.00025565802818080944</v>
       </c>
       <c r="AO8">
-        <v>6.463123336400071e-07</v>
+        <v>0.0064371244228965552</v>
       </c>
       <c r="AP8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AQ8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AR8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AS8">
-        <v>1.5840654976720226e-07</v>
+        <v>1.0955464854869108e-07</v>
       </c>
       <c r="AT8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AU8">
-        <v>2.4920651711533831e-06</v>
+        <v>1.3537435927510912e-05</v>
       </c>
       <c r="AV8">
-        <v>2.2203691197539682e-14</v>
+        <v>8.7491079503900553e-12</v>
       </c>
       <c r="AW8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AX8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="AY8">
-        <v>2.2203691197539682e-14</v>
+        <v>0.0069869045378876766</v>
       </c>
       <c r="AZ8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BA8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BB8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BC8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BD8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BE8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BF8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BG8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BH8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BI8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BJ8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BK8">
-        <v>0.00088389138046245639</v>
+        <v>6.2878868282007202e-06</v>
       </c>
       <c r="BL8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BM8">
-        <v>2.2203691197539682e-14</v>
+        <v>8.8919563566334817e-11</v>
       </c>
       <c r="BN8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BO8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BP8">
-        <v>1.3577231683657671e-07</v>
+        <v>1.8299629131020923e-06</v>
       </c>
       <c r="BQ8">
-        <v>2.2203691197539682e-14</v>
+        <v>1.5757982977715619e-12</v>
       </c>
       <c r="BR8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BS8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BT8">
-        <v>1.2437600526151579e-06</v>
+        <v>3.1938064697528692e-07</v>
       </c>
       <c r="BU8">
-        <v>2.2203691197539682e-14</v>
+        <v>2.2202627241010982e-14</v>
       </c>
       <c r="BV8">
         <v>33</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="C9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="D9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="E9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="F9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="G9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="H9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="I9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="J9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="K9">
-        <v>0.00028083133324187604</v>
+        <v>0.003026178312028437</v>
       </c>
       <c r="L9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="M9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="N9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="O9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="P9">
-        <v>4.1965731399139548e-11</v>
+        <v>2.9897163217518263e-12</v>
       </c>
       <c r="Q9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="R9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="S9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="T9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="U9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="V9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="W9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="X9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="Y9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="Z9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AA9">
-        <v>4.8243840233636904e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AB9">
-        <v>2.0106216953556503e-08</v>
+        <v>8.1191881110700612e-05</v>
       </c>
       <c r="AC9">
-        <v>4.8243840233636904e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AD9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AE9">
-        <v>2.941842272944064e-07</v>
+        <v>8.8067839549029046e-11</v>
       </c>
       <c r="AF9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AG9">
-        <v>4.8243840233636954e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AH9">
-        <v>4.8243840233636904e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AI9">
-        <v>0.56133938730378219</v>
+        <v>0.55288024692249071</v>
       </c>
       <c r="AJ9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AK9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AL9">
-        <v>1.9364137942320473e-06</v>
+        <v>9.6555231138068022e-08</v>
       </c>
       <c r="AM9">
-        <v>4.8243840233636885e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AN9">
-        <v>2.589875250819212e-07</v>
+        <v>6.9286684506598374e-12</v>
       </c>
       <c r="AO9">
-        <v>0.43836295131239317</v>
+        <v>0.4440100184522584</v>
       </c>
       <c r="AP9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AQ9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AR9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AS9">
-        <v>8.8689585496747071e-06</v>
+        <v>1.9773158567000003e-06</v>
       </c>
       <c r="AT9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AU9">
-        <v>5.1299234383700241e-06</v>
+        <v>2.5935481492888624e-07</v>
       </c>
       <c r="AV9">
-        <v>4.8243840233651419e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AW9">
-        <v>4.824384023365535e-14</v>
+        <v>1.7935286908414096e-08</v>
       </c>
       <c r="AX9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AY9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="AZ9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BA9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BB9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BC9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BD9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BE9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BF9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BG9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BH9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BI9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BJ9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BK9">
-        <v>4.8243840233640791e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BL9">
-        <v>4.8243840233636942e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BM9">
-        <v>1.6169698988644405e-11</v>
+        <v>4.6007655898678985e-12</v>
       </c>
       <c r="BN9">
-        <v>4.8243840233636897e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BO9">
-        <v>4.8243840233636998e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BP9">
-        <v>1.202015597541795e-12</v>
+        <v>1.2995002060340791e-08</v>
       </c>
       <c r="BQ9">
-        <v>4.8243840233636929e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BR9">
-        <v>4.8243840233636973e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BS9">
-        <v>4.8243840233636929e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BT9">
-        <v>3.214146457903543e-07</v>
+        <v>1.7204519469923994e-10</v>
       </c>
       <c r="BU9">
-        <v>4.8243840233636929e-14</v>
+        <v>2.2205150453415056e-14</v>
       </c>
       <c r="BV9">
         <v>34</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="C10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="D10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="E10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="F10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="G10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="H10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="I10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="J10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="K10">
-        <v>1.0225359672385284e-05</v>
+        <v>0.0027011648199974391</v>
       </c>
       <c r="L10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="M10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="N10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="O10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="P10">
-        <v>3.3378983280273523e-08</v>
+        <v>1.1557078113538801e-09</v>
       </c>
       <c r="Q10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="R10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="S10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="T10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="U10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="V10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="W10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="X10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="Y10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="Z10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AA10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AB10">
-        <v>3.9753937823718248e-09</v>
+        <v>2.4224857203616702e-10</v>
       </c>
       <c r="AC10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AD10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AE10">
-        <v>1.4710980615632823e-05</v>
+        <v>2.6479345265118444e-06</v>
       </c>
       <c r="AF10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AG10">
-        <v>0.99664156674034354</v>
+        <v>0.99545090395030711</v>
       </c>
       <c r="AH10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AI10">
-        <v>0.002135140754657522</v>
+        <v>0.00078178741178263223</v>
       </c>
       <c r="AJ10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AK10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AL10">
-        <v>2.5956392748024322e-05</v>
+        <v>9.9581701986706375e-05</v>
       </c>
       <c r="AM10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AN10">
-        <v>7.2703025265302059e-08</v>
+        <v>1.2800378314849335e-08</v>
       </c>
       <c r="AO10">
-        <v>0.001130819518120444</v>
+        <v>0.00095290567788425761</v>
       </c>
       <c r="AP10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AQ10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AR10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AS10">
-        <v>9.5911367000460017e-08</v>
+        <v>8.7976640953622986e-09</v>
       </c>
       <c r="AT10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AU10">
-        <v>4.1348975206585913e-05</v>
+        <v>1.0066548721005624e-05</v>
       </c>
       <c r="AV10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AW10">
-        <v>5.712049176100148e-10</v>
+        <v>1.8428445477589269e-11</v>
       </c>
       <c r="AX10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AY10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="AZ10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BA10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BB10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BC10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BD10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BE10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BF10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BG10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BH10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BI10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BJ10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BK10">
-        <v>1.0953470310355066e-10</v>
+        <v>4.003745355192282e-07</v>
       </c>
       <c r="BL10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BM10">
-        <v>5.3004104233701837e-09</v>
+        <v>1.5535697201930446e-09</v>
       </c>
       <c r="BN10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BO10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BP10">
-        <v>1.6234843384472393e-08</v>
+        <v>5.1701056671336679e-07</v>
       </c>
       <c r="BQ10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BR10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BS10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BT10">
-        <v>3.0926297233036687e-09</v>
+        <v>4.5198733312274211e-13</v>
       </c>
       <c r="BU10">
-        <v>2.2203435157348606e-14</v>
+        <v>2.2203076641926831e-14</v>
       </c>
       <c r="BV10">
         <v>32</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="C11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="E11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="F11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="G11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="H11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="I11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="J11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="K11">
-        <v>2.8158811493348257e-05</v>
+        <v>0.0012162169959639415</v>
       </c>
       <c r="L11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="M11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="N11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="O11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="P11">
-        <v>1.3539948689315064e-06</v>
+        <v>5.5583174272601179e-09</v>
       </c>
       <c r="Q11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="R11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="S11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="T11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="U11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="V11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="W11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="X11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="Y11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="Z11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AA11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AB11">
-        <v>0.00034577925107289441</v>
+        <v>0.0032523568032743538</v>
       </c>
       <c r="AC11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AD11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AE11">
-        <v>1.2094906062929286e-05</v>
+        <v>4.1750359457509155e-09</v>
       </c>
       <c r="AF11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AG11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AH11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AI11">
-        <v>5.6070053640109642e-06</v>
+        <v>6.0650147267395366e-06</v>
       </c>
       <c r="AJ11">
-        <v>0.99901341808247945</v>
+        <v>0.99523158904839615</v>
       </c>
       <c r="AK11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AL11">
-        <v>3.1962976484908388e-08</v>
+        <v>3.040301941973396e-09</v>
       </c>
       <c r="AM11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AN11">
-        <v>2.6008662160744316e-09</v>
+        <v>1.7044692057252256e-10</v>
       </c>
       <c r="AO11">
-        <v>0.00056045353039702961</v>
+        <v>3.0184530266394007e-05</v>
       </c>
       <c r="AP11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AQ11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AR11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AS11">
-        <v>4.013374498866855e-07</v>
+        <v>1.8230153807583836e-07</v>
       </c>
       <c r="AT11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AU11">
-        <v>3.1653347608992477e-05</v>
+        <v>5.2767860063973307e-06</v>
       </c>
       <c r="AV11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AW11">
-        <v>8.4229175550105503e-09</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AX11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AY11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="AZ11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BA11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BB11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BC11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BD11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BE11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BF11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BG11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BH11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BI11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BJ11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BK11">
-        <v>1.9605870589008121e-07</v>
+        <v>0.00025727003556852234</v>
       </c>
       <c r="BL11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BM11">
-        <v>8.1743921510054075e-07</v>
+        <v>8.4211859746268451e-07</v>
       </c>
       <c r="BN11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BO11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BP11">
-        <v>2.2695824633456124e-08</v>
+        <v>3.4202720231474616e-09</v>
       </c>
       <c r="BQ11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BR11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BS11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BT11">
-        <v>5.5145307241291895e-10</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BU11">
-        <v>2.2204157131846929e-14</v>
+        <v>2.2203010882350935e-14</v>
       </c>
       <c r="BV11">
         <v>35</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="C12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="D12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="E12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="F12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="G12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="H12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="I12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="J12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="K12">
-        <v>1.1080905177239307e-09</v>
+        <v>9.9594714042045564e-12</v>
       </c>
       <c r="L12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="M12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="N12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="O12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="P12">
-        <v>7.6450411663868224e-05</v>
+        <v>2.5763108463269586e-05</v>
       </c>
       <c r="Q12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="R12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="S12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="T12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="U12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="V12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="W12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="X12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="Y12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="Z12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AA12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AB12">
-        <v>1.7213889426463809e-11</v>
+        <v>1.2270313542813091e-10</v>
       </c>
       <c r="AC12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AD12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AE12">
-        <v>3.0035949590324887e-08</v>
+        <v>9.7006054979485973e-11</v>
       </c>
       <c r="AF12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AG12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AH12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AI12">
-        <v>0.00024416549268026905</v>
+        <v>6.3316689194096461e-05</v>
       </c>
       <c r="AJ12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AK12">
-        <v>0.99425429624694261</v>
+        <v>0.49997026367994596</v>
       </c>
       <c r="AL12">
-        <v>9.4857494914645744e-06</v>
+        <v>2.7313015391835576e-05</v>
       </c>
       <c r="AM12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AN12">
-        <v>8.149221549429339e-09</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AO12">
-        <v>0.00024353035034549539</v>
+        <v>2.6841455815035929e-05</v>
       </c>
       <c r="AP12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AQ12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AR12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AS12">
-        <v>2.5702225479502623e-06</v>
+        <v>3.5145328886067045e-08</v>
       </c>
       <c r="AT12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AU12">
-        <v>8.8704162751956592e-06</v>
+        <v>1.0890262076331012e-06</v>
       </c>
       <c r="AV12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AW12">
-        <v>1.7557961879300781e-08</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AX12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AY12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="AZ12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BA12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BB12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BC12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BD12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BE12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BF12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BG12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BH12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BI12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BJ12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BK12">
-        <v>0.0051304781631931005</v>
+        <v>0.49969466419274833</v>
       </c>
       <c r="BL12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BM12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BN12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BO12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BP12">
-        <v>2.9893890895555224e-05</v>
+        <v>0.00019071336110406667</v>
       </c>
       <c r="BQ12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BR12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BS12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BT12">
-        <v>2.0218626143471875e-07</v>
+        <v>9.4822262201463821e-11</v>
       </c>
       <c r="BU12">
-        <v>2.2202718923718349e-14</v>
+        <v>2.2204757959315677e-14</v>
       </c>
       <c r="BV12">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>6.3912000955642669e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="C13">
-        <v>6.3912000955642669e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="D13">
-        <v>6.3912000955642669e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="E13">
-        <v>6.3912000955642669e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="F13">
-        <v>6.3912000955642669e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="G13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="H13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="I13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="J13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="K13">
-        <v>3.6194714792391917e-11</v>
+        <v>1.4006187719450811e-11</v>
       </c>
       <c r="L13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="M13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="N13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="O13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="P13">
-        <v>0.00099529096431915038</v>
+        <v>0.00046100572502034287</v>
       </c>
       <c r="Q13">
-        <v>6.3912000955642946e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="R13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="S13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="T13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="U13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="V13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="W13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="X13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="Y13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="Z13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AA13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AB13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AC13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AD13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AE13">
-        <v>3.3821051062410167e-05</v>
+        <v>9.2307817071630009e-07</v>
       </c>
       <c r="AF13">
-        <v>6.391200095564277e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AG13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AH13">
-        <v>6.391200095564277e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AI13">
-        <v>0.00030030472766173896</v>
+        <v>1.4417415942532078e-06</v>
       </c>
       <c r="AJ13">
-        <v>6.3912000955642883e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AK13">
-        <v>6.3912000955642883e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AL13">
-        <v>0.99538019647930764</v>
+        <v>0.99025504553655963</v>
       </c>
       <c r="AM13">
-        <v>6.3912000955642883e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AN13">
-        <v>2.1141485592680183e-09</v>
+        <v>5.422233386091663e-13</v>
       </c>
       <c r="AO13">
-        <v>3.8929814872171641e-06</v>
+        <v>4.3746254608770434e-06</v>
       </c>
       <c r="AP13">
-        <v>6.3912000955642631e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AQ13">
-        <v>6.3912000955642631e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AR13">
-        <v>6.3912000955642631e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AS13">
-        <v>7.0216028905711046e-09</v>
+        <v>1.0903557755771427e-10</v>
       </c>
       <c r="AT13">
-        <v>6.3912000955642631e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AU13">
-        <v>0.0032690765485303801</v>
+        <v>0.00082717490677657437</v>
       </c>
       <c r="AV13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AW13">
-        <v>6.3912000955668871e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AX13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AY13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="AZ13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BA13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BB13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BC13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BD13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BE13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BF13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BG13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BH13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BI13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BJ13">
-        <v>6.3912000955642631e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BK13">
-        <v>2.5070703697361783e-08</v>
+        <v>5.1300173874958063e-08</v>
       </c>
       <c r="BL13">
-        <v>6.3912000955642631e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BM13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BN13">
-        <v>6.3912000955642618e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BO13">
-        <v>6.3912000955643035e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BP13">
-        <v>1.2082152848416433e-05</v>
+        <v>4.8368792795477828e-05</v>
       </c>
       <c r="BQ13">
-        <v>6.3912000955643098e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BR13">
-        <v>6.3912000955643098e-14</v>
+        <v>0.0084016012105198948</v>
       </c>
       <c r="BS13">
-        <v>6.3912000955643098e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BT13">
-        <v>5.300848299701041e-06</v>
+        <v>1.2958034371011277e-08</v>
       </c>
       <c r="BU13">
-        <v>6.3912000955642908e-14</v>
+        <v>2.2202611388656612e-14</v>
       </c>
       <c r="BV13">
         <v>37</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="C14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="D14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="E14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="F14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="G14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="H14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="I14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="J14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="K14">
-        <v>5.5434008207408459e-11</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="L14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="M14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="N14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="O14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="P14">
-        <v>3.6042858910236251e-08</v>
+        <v>2.5814799663258487e-09</v>
       </c>
       <c r="Q14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="R14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="S14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="T14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="U14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="V14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="W14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="X14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="Y14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="Z14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AA14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AB14">
-        <v>2.2204268657447859e-14</v>
+        <v>1.803313680461337e-12</v>
       </c>
       <c r="AC14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AD14">
-        <v>0.99937679728704765</v>
+        <v>0.94111406693437349</v>
       </c>
       <c r="AE14">
-        <v>0.00012258399712190897</v>
+        <v>7.7408151841014742e-06</v>
       </c>
       <c r="AF14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AG14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AH14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AI14">
-        <v>2.3186270349939099e-05</v>
+        <v>2.6710431470535668e-05</v>
       </c>
       <c r="AJ14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AK14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AL14">
-        <v>1.2948356178469578e-06</v>
+        <v>4.3879018409977196e-07</v>
       </c>
       <c r="AM14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AN14">
-        <v>1.6123992930446883e-06</v>
+        <v>7.9500413441076437e-06</v>
       </c>
       <c r="AO14">
-        <v>5.4630474930716262e-06</v>
+        <v>2.8684231897200041e-07</v>
       </c>
       <c r="AP14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AQ14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AR14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AS14">
-        <v>3.6029092700888534e-10</v>
+        <v>1.4055161443691521e-10</v>
       </c>
       <c r="AT14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AU14">
-        <v>4.4799905123961284e-05</v>
+        <v>3.3666432443575871e-06</v>
       </c>
       <c r="AV14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AW14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AX14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AY14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="AZ14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BA14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BB14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BC14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BD14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BE14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BF14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BG14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BH14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BI14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BJ14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BK14">
-        <v>8.8181045239130887e-06</v>
+        <v>0.058822800359307731</v>
       </c>
       <c r="BL14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BM14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BN14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BO14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BP14">
-        <v>2.499035815683136e-13</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BQ14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BR14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BS14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BT14">
-        <v>0.00041540769328480382</v>
+        <v>1.6636417405523327e-05</v>
       </c>
       <c r="BU14">
-        <v>2.2204268657447859e-14</v>
+        <v>2.220271560903607e-14</v>
       </c>
       <c r="BV14">
         <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="C15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="D15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="E15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="F15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="G15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="H15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="I15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="J15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="K15">
-        <v>2.9910699726038938e-10</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="L15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="M15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="N15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="O15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="P15">
-        <v>2.6209775679378904e-12</v>
+        <v>6.4564106857179776e-09</v>
       </c>
       <c r="Q15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="R15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="S15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="T15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="U15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="V15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="W15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="X15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="Y15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="Z15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AA15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AB15">
-        <v>2.2204078106481894e-14</v>
+        <v>3.3426960228349085e-12</v>
       </c>
       <c r="AC15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AD15">
-        <v>0.99875545188166237</v>
+        <v>0.87091361729210537</v>
       </c>
       <c r="AE15">
-        <v>0.00066813771660207907</v>
+        <v>2.9188625696338015e-06</v>
       </c>
       <c r="AF15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AG15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AH15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AI15">
-        <v>2.9514182251520912e-08</v>
+        <v>5.1614408855930724e-05</v>
       </c>
       <c r="AJ15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AK15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AL15">
-        <v>6.1090537547272757e-07</v>
+        <v>3.6214070594346744e-07</v>
       </c>
       <c r="AM15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AN15">
-        <v>0.00010088650670342146</v>
+        <v>4.8861988286303843e-06</v>
       </c>
       <c r="AO15">
-        <v>1.0060552552800562e-07</v>
+        <v>2.203678009477058e-07</v>
       </c>
       <c r="AP15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AQ15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AR15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AS15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.8777322705601167e-10</v>
       </c>
       <c r="AT15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AU15">
-        <v>0.00047155847747050759</v>
+        <v>1.4324082636994813e-06</v>
       </c>
       <c r="AV15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AW15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AX15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AY15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="AZ15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BA15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BB15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BC15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BD15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BE15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BF15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BG15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BH15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BI15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BJ15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BK15">
-        <v>3.2688949694671789e-10</v>
+        <v>0.12901320528929106</v>
       </c>
       <c r="BL15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BM15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BN15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BO15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BP15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BQ15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BR15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BS15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BT15">
-        <v>3.2237625062883534e-06</v>
+        <v>1.1736282720039312e-05</v>
       </c>
       <c r="BU15">
-        <v>2.2204078106481894e-14</v>
+        <v>2.2202602632151182e-14</v>
       </c>
       <c r="BV15">
         <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="C16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="D16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="E16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="F16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="G16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="H16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="I16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="J16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="K16">
-        <v>0.00021293284285303936</v>
+        <v>0.056160519869188165</v>
       </c>
       <c r="L16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="M16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="N16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="O16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="P16">
-        <v>2.1360724837306486e-09</v>
+        <v>8.1002046093932391e-11</v>
       </c>
       <c r="Q16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="R16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="S16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="T16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="U16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="V16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="W16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="X16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="Y16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="Z16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AA16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AB16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AC16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AD16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AE16">
-        <v>5.9078725703286322e-05</v>
+        <v>3.5439828494939125e-11</v>
       </c>
       <c r="AF16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AG16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AH16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AI16">
-        <v>0.002726908418948194</v>
+        <v>0.0014821717897324663</v>
       </c>
       <c r="AJ16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AK16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AL16">
-        <v>1.617849725941493e-07</v>
+        <v>4.222397500698338e-09</v>
       </c>
       <c r="AM16">
-        <v>0.99658904777107127</v>
+        <v>0.94225178295322698</v>
       </c>
       <c r="AN16">
-        <v>0.00032604710134274945</v>
+        <v>9.1363942790538522e-06</v>
       </c>
       <c r="AO16">
-        <v>3.9601559246962115e-06</v>
+        <v>4.8217245744434377e-09</v>
       </c>
       <c r="AP16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AQ16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AR16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AS16">
-        <v>1.3923397525709957e-06</v>
+        <v>1.3180522745644955e-07</v>
       </c>
       <c r="AT16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AU16">
-        <v>7.9729481683859623e-05</v>
+        <v>4.8598535919884203e-06</v>
       </c>
       <c r="AV16">
-        <v>3.6997389545667587e-12</v>
+        <v>1.5149541291721595e-09</v>
       </c>
       <c r="AW16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AX16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AY16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="AZ16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BA16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BB16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BC16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BD16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BE16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BF16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BG16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BH16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BI16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BJ16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BK16">
-        <v>2.3400564976750213e-10</v>
+        <v>8.3880649074266958e-14</v>
       </c>
       <c r="BL16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BM16">
-        <v>1.4673967569301564e-07</v>
+        <v>9.1386656803530789e-05</v>
       </c>
       <c r="BN16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BO16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BP16">
-        <v>2.7506309825700041e-13</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BQ16">
-        <v>3.2438905997773664e-13</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BR16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BS16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BT16">
-        <v>5.922624513045223e-07</v>
+        <v>1.0604813421067687e-12</v>
       </c>
       <c r="BU16">
-        <v>2.2203419284844362e-14</v>
+        <v>2.2202295467154463e-14</v>
       </c>
       <c r="BV16">
         <v>38</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="C17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="D17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="E17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="F17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="G17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="H17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="I17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="J17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="K17">
-        <v>6.3860391491003381e-05</v>
+        <v>0.00024299888475337537</v>
       </c>
       <c r="L17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="M17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="N17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="O17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="P17">
-        <v>1.6488887935042168e-06</v>
+        <v>6.1605231168328388e-08</v>
       </c>
       <c r="Q17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="R17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="S17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="T17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="U17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="V17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="W17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="X17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="Y17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="Z17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AA17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AB17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AC17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AD17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AE17">
-        <v>3.509912748192389e-10</v>
+        <v>1.8049181399756113e-13</v>
       </c>
       <c r="AF17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AG17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AH17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AI17">
-        <v>3.0386576278160713e-05</v>
+        <v>3.1291788791556556e-05</v>
       </c>
       <c r="AJ17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AK17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AL17">
-        <v>6.3858356660784851e-08</v>
+        <v>2.050631939023114e-08</v>
       </c>
       <c r="AM17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AN17">
-        <v>0.99974892583058861</v>
+        <v>0.97894655140756948</v>
       </c>
       <c r="AO17">
-        <v>5.3456353796836566e-07</v>
+        <v>3.688781442540404e-09</v>
       </c>
       <c r="AP17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AQ17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AR17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AS17">
-        <v>1.2442384966338354e-06</v>
+        <v>3.9490348537146583e-07</v>
       </c>
       <c r="AT17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AU17">
-        <v>4.6319625526451466e-05</v>
+        <v>6.0822248383859096e-06</v>
       </c>
       <c r="AV17">
-        <v>1.8334147544640975e-05</v>
+        <v>1.0518202014942227e-06</v>
       </c>
       <c r="AW17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AX17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AY17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="AZ17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BA17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BB17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BC17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BD17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BE17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BF17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BG17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BH17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BI17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BJ17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BK17">
-        <v>4.9703952940767589e-06</v>
+        <v>0.020681601996912144</v>
       </c>
       <c r="BL17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BM17">
-        <v>8.3705513423782695e-05</v>
+        <v>8.9941170549193988e-05</v>
       </c>
       <c r="BN17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BO17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BP17">
-        <v>2.2205020339804253e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BQ17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BR17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BS17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BT17">
-        <v>5.6183671181843777e-09</v>
+        <v>1.0766206746825901e-12</v>
       </c>
       <c r="BU17">
-        <v>2.2205020339804247e-14</v>
+        <v>2.2202217399310114e-14</v>
       </c>
       <c r="BV17">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="C18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="D18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="E18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="F18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="G18">
-        <v>7.579265792671915e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="H18">
-        <v>7.579265792671915e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="I18">
-        <v>7.579265792671915e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="J18">
-        <v>7.579265792671915e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="K18">
-        <v>1.1427252074728181e-05</v>
+        <v>0.001082449661682017</v>
       </c>
       <c r="L18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="M18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="N18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="O18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="P18">
-        <v>1.414505039543073e-08</v>
+        <v>1.1067770941019794e-11</v>
       </c>
       <c r="Q18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="R18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="S18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="T18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="U18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="V18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="W18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="X18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="Y18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="Z18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AA18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AB18">
-        <v>6.4744383807155956e-06</v>
+        <v>9.4507652381823024e-06</v>
       </c>
       <c r="AC18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AD18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AE18">
-        <v>1.0167289686332164e-06</v>
+        <v>1.1672934027123228e-09</v>
       </c>
       <c r="AF18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AG18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AH18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AI18">
-        <v>0.79135576791144735</v>
+        <v>0.044144290089396146</v>
       </c>
       <c r="AJ18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AK18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AL18">
-        <v>8.2241415767788593e-07</v>
+        <v>4.4804540635916415e-07</v>
       </c>
       <c r="AM18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AN18">
-        <v>6.3097142220427985e-10</v>
+        <v>3.3938855034934493e-11</v>
       </c>
       <c r="AO18">
-        <v>0.20848347655236196</v>
+        <v>0.95476212565776153</v>
       </c>
       <c r="AP18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AQ18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AR18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AS18">
-        <v>1.9671447851762306e-05</v>
+        <v>8.7066696607626982e-07</v>
       </c>
       <c r="AT18">
-        <v>7.5792657926719125e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AU18">
-        <v>1.1686163106947856e-05</v>
+        <v>3.4122452816813873e-07</v>
       </c>
       <c r="AV18">
-        <v>7.046859137453747e-13</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AW18">
-        <v>2.328992527427308e-05</v>
+        <v>1.1528810888967976e-08</v>
       </c>
       <c r="AX18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AY18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="AZ18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BA18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BB18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BC18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BD18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BE18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BF18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BG18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BH18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BI18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BJ18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BK18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BL18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BM18">
-        <v>7.5792657926740633e-14</v>
+        <v>3.8806435825753368e-13</v>
       </c>
       <c r="BN18">
-        <v>7.5792657926719176e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BO18">
-        <v>7.5792657926719201e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BP18">
-        <v>6.4378261721678975e-07</v>
+        <v>1.0924748349525885e-08</v>
       </c>
       <c r="BQ18">
-        <v>7.5792657926719201e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BR18">
-        <v>7.5792657926719201e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BS18">
-        <v>7.5792657926719201e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BT18">
-        <v>8.5708602635280233e-05</v>
+        <v>2.2148616545346026e-10</v>
       </c>
       <c r="BU18">
-        <v>7.5792657926719201e-14</v>
+        <v>2.2202802103600484e-14</v>
       </c>
       <c r="BV18">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="C19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="D19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="E19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="F19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="G19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="H19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="I19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="J19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="K19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="L19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="M19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="N19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="O19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="P19">
-        <v>5.9069731730783442e-09</v>
+        <v>7.5367833356384831e-08</v>
       </c>
       <c r="Q19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="R19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="S19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="T19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="U19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="V19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="W19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="X19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="Y19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="Z19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AA19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AB19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AC19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AD19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AE19">
-        <v>0.0024441796466647876</v>
+        <v>2.6768430907574649e-06</v>
       </c>
       <c r="AF19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AG19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AH19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AI19">
-        <v>0.014112862785145567</v>
+        <v>0.00037292026405064197</v>
       </c>
       <c r="AJ19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AK19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AL19">
-        <v>4.6958050733042814e-05</v>
+        <v>9.1364095926197651e-06</v>
       </c>
       <c r="AM19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AN19">
-        <v>7.9971589002950527e-12</v>
+        <v>1.0981294640072381e-08</v>
       </c>
       <c r="AO19">
-        <v>1.3484543080507717e-06</v>
+        <v>1.4938300318850668e-05</v>
       </c>
       <c r="AP19">
-        <v>0.98330854313437988</v>
+        <v>0.99946392460939026</v>
       </c>
       <c r="AQ19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AR19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AS19">
-        <v>1.4586472437094198e-06</v>
+        <v>2.1856807725564638e-05</v>
       </c>
       <c r="AT19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AU19">
-        <v>6.9842381644334843e-06</v>
+        <v>5.7209699697322055e-06</v>
       </c>
       <c r="AV19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AW19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AX19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AY19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="AZ19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BA19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BB19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BC19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BD19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BE19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BF19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BG19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BH19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BI19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BJ19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BK19">
-        <v>2.9179016847181856e-05</v>
+        <v>6.0575948417661138e-06</v>
       </c>
       <c r="BL19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BM19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BN19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BO19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BP19">
-        <v>2.7580868042436367e-07</v>
+        <v>5.4250773297147103e-09</v>
       </c>
       <c r="BQ19">
-        <v>3.8120986243473615e-11</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BR19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BS19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BT19">
-        <v>4.820426343195831e-05</v>
+        <v>0.00010267642548197754</v>
       </c>
       <c r="BU19">
-        <v>2.2202439167024446e-14</v>
+        <v>2.2204295434066897e-14</v>
       </c>
       <c r="BV19">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="C20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="D20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="E20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="F20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="G20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="H20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="I20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="J20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="K20">
-        <v>8.8183831792751792e-12</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="L20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="M20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="N20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="O20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="P20">
-        <v>3.7373057080902473e-07</v>
+        <v>9.1635670421331074e-09</v>
       </c>
       <c r="Q20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="R20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="S20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="T20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="U20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="V20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="W20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="X20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="Y20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="Z20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AA20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AB20">
-        <v>2.2204238876256861e-14</v>
+        <v>1.8239783651561407e-12</v>
       </c>
       <c r="AC20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AD20">
-        <v>0.9992798399158932</v>
+        <v>0.79011939005188681</v>
       </c>
       <c r="AE20">
-        <v>7.2916540604692757e-05</v>
+        <v>2.477335562004103e-06</v>
       </c>
       <c r="AF20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AG20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AH20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AI20">
-        <v>0.00020631193773185661</v>
+        <v>9.5166661137325391e-05</v>
       </c>
       <c r="AJ20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AK20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AL20">
-        <v>2.5851879588424941e-06</v>
+        <v>3.5440608179886587e-07</v>
       </c>
       <c r="AM20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AN20">
-        <v>1.8645499112526765e-06</v>
+        <v>2.7260565305449447e-06</v>
       </c>
       <c r="AO20">
-        <v>8.947712650292288e-06</v>
+        <v>2.0276022859630969e-07</v>
       </c>
       <c r="AP20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AQ20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AR20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AS20">
-        <v>2.7053792945819833e-09</v>
+        <v>4.0879216857416742e-10</v>
       </c>
       <c r="AT20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AU20">
-        <v>2.0072173610658168e-05</v>
+        <v>1.0189800346074409e-06</v>
       </c>
       <c r="AV20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AW20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AX20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AY20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="AZ20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BA20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BB20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BC20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BD20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BE20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BF20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BG20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BH20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BI20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BJ20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BK20">
-        <v>5.1195163536374953e-05</v>
+        <v>0.20976627224985947</v>
       </c>
       <c r="BL20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BM20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BN20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BO20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BP20">
-        <v>6.7322231074270967e-13</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BQ20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BR20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BS20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BT20">
-        <v>0.0003558903713510121</v>
+        <v>1.2381923163463998e-05</v>
       </c>
       <c r="BU20">
-        <v>2.2204238876256861e-14</v>
+        <v>2.2202471750704763e-14</v>
       </c>
       <c r="BV20">
         <v>29</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="C21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="D21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="E21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="F21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="G21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="H21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="I21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="J21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="K21">
-        <v>2.2202814442275432e-14</v>
+        <v>3.4797245363859031e-12</v>
       </c>
       <c r="L21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="M21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="N21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="O21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="P21">
-        <v>0.00010327951482224641</v>
+        <v>1.5271205354277423e-05</v>
       </c>
       <c r="Q21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="R21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="S21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="T21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="U21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="V21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="W21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="X21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="Y21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="Z21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AA21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AB21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AC21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AD21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AE21">
-        <v>2.2202814442275432e-14</v>
+        <v>4.1288049705673e-09</v>
       </c>
       <c r="AF21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AG21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AH21">
-        <v>0.99457470300007045</v>
+        <v>0.98921627525299194</v>
       </c>
       <c r="AI21">
-        <v>0.00021292515116684454</v>
+        <v>4.5650537133604488e-06</v>
       </c>
       <c r="AJ21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AK21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AL21">
-        <v>0.00022362201199166762</v>
+        <v>0.000944556463025658</v>
       </c>
       <c r="AM21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AN21">
-        <v>3.0890903250633979e-07</v>
+        <v>4.6112533762267981e-05</v>
       </c>
       <c r="AO21">
-        <v>2.1024839425742623e-06</v>
+        <v>0.0017930120495522224</v>
       </c>
       <c r="AP21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AQ21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AR21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AS21">
-        <v>2.4331021358383933e-07</v>
+        <v>1.0355366341111108e-07</v>
       </c>
       <c r="AT21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AU21">
-        <v>4.0565395681610392e-06</v>
+        <v>1.2934805069393725e-05</v>
       </c>
       <c r="AV21">
-        <v>2.2202814442275432e-14</v>
+        <v>8.2025406534247582e-12</v>
       </c>
       <c r="AW21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AX21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="AY21">
-        <v>2.2202814442275432e-14</v>
+        <v>0.0079475646674824502</v>
       </c>
       <c r="AZ21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BA21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BB21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BC21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BD21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BE21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BF21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BG21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BH21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BI21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BJ21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BK21">
-        <v>0.0048754460782477541</v>
+        <v>1.7639186917617433e-05</v>
       </c>
       <c r="BL21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BM21">
-        <v>2.2202814442275432e-14</v>
+        <v>4.8687329482337951e-11</v>
       </c>
       <c r="BN21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BO21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BP21">
-        <v>1.7864592694701017e-08</v>
+        <v>1.4298027493169428e-06</v>
       </c>
       <c r="BQ21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BR21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BS21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BT21">
-        <v>3.2951349969508181e-06</v>
+        <v>5.3123529997887959e-07</v>
       </c>
       <c r="BU21">
-        <v>2.2202814442275432e-14</v>
+        <v>2.2202461504153786e-14</v>
       </c>
       <c r="BV21">
         <v>33</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.7996909974809445e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="C22">
-        <v>2.7996909974809445e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="D22">
-        <v>2.7996909974809445e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="E22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="F22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="G22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="H22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="I22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="J22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="K22">
-        <v>0.00036459323675591004</v>
+        <v>0.0030481982316393499</v>
       </c>
       <c r="L22">
-        <v>2.7996909974809445e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="M22">
-        <v>2.7996909974809376e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="N22">
-        <v>2.7996909974809376e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="O22">
-        <v>2.7996909974809445e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="P22">
-        <v>3.5527196172197502e-10</v>
+        <v>8.8084109370193117e-12</v>
       </c>
       <c r="Q22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="R22">
-        <v>2.7996909974809376e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="S22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="T22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="U22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="V22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="W22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="X22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="Y22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="Z22">
-        <v>2.799690997480948e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AA22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AB22">
-        <v>1.0857007423661574e-05</v>
+        <v>5.1799907341812039e-05</v>
       </c>
       <c r="AC22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AD22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AE22">
-        <v>1.0717520987298237e-07</v>
+        <v>1.7317889044102248e-09</v>
       </c>
       <c r="AF22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AG22">
-        <v>2.799690997480948e-14</v>
+        <v>0.01015465416610843</v>
       </c>
       <c r="AH22">
-        <v>2.799690997480941e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AI22">
-        <v>0.022235579965265474</v>
+        <v>0.0097297554305694634</v>
       </c>
       <c r="AJ22">
-        <v>2.7996909974809606e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AK22">
-        <v>2.7996909974809606e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AL22">
-        <v>4.5635970323806388e-07</v>
+        <v>1.683044754321126e-06</v>
       </c>
       <c r="AM22">
-        <v>2.7996909974809571e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AN22">
-        <v>5.6460502077647302e-10</v>
+        <v>9.6001464570031224e-11</v>
       </c>
       <c r="AO22">
-        <v>0.9773817185705459</v>
+        <v>0.97701311436703664</v>
       </c>
       <c r="AP22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AQ22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AR22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AS22">
-        <v>3.9357826041242111e-06</v>
+        <v>4.7589325489223037e-07</v>
       </c>
       <c r="AT22">
-        <v>2.7996909974805554e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AU22">
-        <v>2.6482905536052686e-06</v>
+        <v>3.1344456637245275e-07</v>
       </c>
       <c r="AV22">
-        <v>2.7996909974805554e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AW22">
-        <v>5.4582232984721858e-08</v>
+        <v>5.5402870947735497e-10</v>
       </c>
       <c r="AX22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AY22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="AZ22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BA22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BB22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BC22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BD22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BE22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BF22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BG22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BH22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BI22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BJ22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BK22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BL22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BM22">
-        <v>7.5370089872728499e-12</v>
+        <v>3.4189881000521514e-12</v>
       </c>
       <c r="BN22">
-        <v>2.7996909974805561e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BO22">
-        <v>2.7996909974804816e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BP22">
-        <v>2.0096270441097248e-08</v>
+        <v>3.0994210524429364e-09</v>
       </c>
       <c r="BQ22">
-        <v>2.7996909974804816e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BR22">
-        <v>2.7996909974804816e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BS22">
-        <v>2.7996909974804816e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BT22">
-        <v>2.8004397508871112e-08</v>
+        <v>1.9995818832436675e-11</v>
       </c>
       <c r="BU22">
-        <v>2.7996909974804816e-14</v>
+        <v>2.2203736762690595e-14</v>
       </c>
       <c r="BV22">
         <v>40</v>
